--- a/HR7003/Λύση MBA UEL.xlsx
+++ b/HR7003/Λύση MBA UEL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2023\MBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Documents2\GitHub\MBA\HR7003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F08625F7-BCC0-4E23-83DD-B9F0BD82AD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026126C0-29D6-42E5-B332-CD0C707F7450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B61803F2-1408-41C7-A43D-EA3150154854}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B61803F2-1408-41C7-A43D-EA3150154854}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Προϋπολογισμένα</t>
   </si>
@@ -87,16 +86,59 @@
   </si>
   <si>
     <t>Eπαλήθευση</t>
+  </si>
+  <si>
+    <t>Budgeted Actual Total Deviation Elastic Expense deviation Volume deviation Verify</t>
+  </si>
+  <si>
+    <t>Amount of meals 25,000 20,000</t>
+  </si>
+  <si>
+    <t>Revenue (€6.00 per meal) €150,000 €120,000 -€30,000 120000 €0 -€30,000 -€30,000</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Raw materials (€3 per meal) €75,000 €55,000 -€20,000 60000 -€5,000 -€15,000 -€20,000</t>
+  </si>
+  <si>
+    <t>Salaries (€6000 + €0.2 per meal) €11,000 €9,000 -€2,000 10000 -€1,000 -€1,000 -€2,000</t>
+  </si>
+  <si>
+    <t>Utility expenses - electricity, water, telecommunications (€3000 + €0.1 per meal) €5,500 €3,400 -€2,100 5000 -€1,600 -€500 -€2,100</t>
+  </si>
+  <si>
+    <t>Premises rent €4,000 €5,500 €1,500 €4,000 €1,500 €0 €1,500</t>
+  </si>
+  <si>
+    <t>Insurance premium €2,700 €3,200 €500 €2,700 €500 €0 €500</t>
+  </si>
+  <si>
+    <t>Fuel €2,000 €2,800 €800 €2,000 €800 €0 €800</t>
+  </si>
+  <si>
+    <t>Net operating profit €49,800 €41,100 -€8,700 36300 €4,800 -€13,500 -€8,700</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
+    <numFmt numFmtId="165" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,10 +171,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -146,9 +189,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -269,7 +316,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -565,26 +612,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FFF17E-5CB0-484E-B056-7E94BC14454C}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="61.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="117" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -618,8 +667,11 @@
         <v>20000</v>
       </c>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -649,8 +701,11 @@
         <f t="shared" ref="H3:H10" si="0">SUM(F3:G3)</f>
         <v>-30000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="O3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -658,8 +713,11 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="O4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -670,7 +728,7 @@
         <v>55000</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D11" si="1">C5-B5</f>
+        <f>C5-B5</f>
         <v>-20000</v>
       </c>
       <c r="E5" s="1">
@@ -678,19 +736,22 @@
         <v>60000</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F11" si="2">C5-E5</f>
+        <f>C5-E5</f>
         <v>-5000</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" ref="G5:G11" si="3">E5-B5</f>
+        <f>E5-B5</f>
         <v>-15000</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>-20000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="O5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -701,7 +762,7 @@
         <v>9000</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="1"/>
+        <f>C6-B6</f>
         <v>-2000</v>
       </c>
       <c r="E6" s="1">
@@ -709,19 +770,22 @@
         <v>10000</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="2"/>
+        <f>C6-E6</f>
         <v>-1000</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="3"/>
+        <f>E6-B6</f>
         <v>-1000</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>-2000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="O6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -732,7 +796,7 @@
         <v>3400</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
+        <f>C7-B7</f>
         <v>-2100</v>
       </c>
       <c r="E7" s="1">
@@ -740,19 +804,22 @@
         <v>5000</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="2"/>
+        <f>C7-E7</f>
         <v>-1600</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="3"/>
+        <f>E7-B7</f>
         <v>-500</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>-2100</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="O7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -763,26 +830,29 @@
         <v>5500</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="1"/>
+        <f>C8-B8</f>
         <v>1500</v>
       </c>
       <c r="E8" s="3">
         <v>4000</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="2"/>
+        <f>C8-E8</f>
         <v>1500</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="3"/>
+        <f>E8-B8</f>
         <v>0</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="O8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -793,26 +863,29 @@
         <v>3200</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
+        <f>C9-B9</f>
         <v>500</v>
       </c>
       <c r="E9" s="3">
         <v>2700</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="2"/>
+        <f>C9-E9</f>
         <v>500</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="3"/>
+        <f>E9-B9</f>
         <v>0</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="O9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -823,37 +896,41 @@
         <v>2800</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="1"/>
+        <f>C10-B10</f>
         <v>800</v>
       </c>
       <c r="E10" s="3">
         <v>2000</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="2"/>
+        <f>C10-E10</f>
         <v>800</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="3"/>
+        <f>E10-B10</f>
         <v>0</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="O10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3">
+        <f>B3 - SUM(B5:B10)</f>
         <v>49800</v>
       </c>
       <c r="C11" s="3">
         <v>41100</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="1"/>
+        <f>C11-B11</f>
         <v>-8700</v>
       </c>
       <c r="E11" s="1">
@@ -861,16 +938,311 @@
         <v>36300</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="2"/>
+        <f>C11-E11</f>
         <v>4800</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="3"/>
+        <f>E11-B11</f>
         <v>-13500</v>
       </c>
       <c r="H11" s="3">
         <f>SUM(F11:G11)</f>
         <v>-8700</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C32" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="3">
+        <v>120000</v>
+      </c>
+      <c r="C33" s="3">
+        <v>120000</v>
+      </c>
+      <c r="D33" s="3">
+        <f>C33-B33</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <f>C32*6</f>
+        <v>120000</v>
+      </c>
+      <c r="F33" s="3">
+        <f>C33-E33</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <f>E33-B33</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" ref="H33:H40" si="1">SUM(F33:G33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="3">
+        <v>60000</v>
+      </c>
+      <c r="C35" s="3">
+        <v>55000</v>
+      </c>
+      <c r="D35" s="3">
+        <f>C35-B35</f>
+        <v>-5000</v>
+      </c>
+      <c r="E35" s="5">
+        <f>C32*3</f>
+        <v>60000</v>
+      </c>
+      <c r="F35" s="3">
+        <f>C35-E35</f>
+        <v>-5000</v>
+      </c>
+      <c r="G35" s="3">
+        <f>E35-B35</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" ref="H35:H41" si="2">SUM(F35:G35)</f>
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C36" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D36" s="3">
+        <f>C36-B36</f>
+        <v>-1000</v>
+      </c>
+      <c r="E36" s="5">
+        <f>6000+C32*0.2</f>
+        <v>10000</v>
+      </c>
+      <c r="F36" s="3">
+        <f>C36-E36</f>
+        <v>-1000</v>
+      </c>
+      <c r="G36" s="3">
+        <f>E36-B36</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="2"/>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3400</v>
+      </c>
+      <c r="D37" s="3">
+        <f>C37-B37</f>
+        <v>-1600</v>
+      </c>
+      <c r="E37" s="5">
+        <f>3000+0.1*C32</f>
+        <v>5000</v>
+      </c>
+      <c r="F37" s="3">
+        <f>C37-E37</f>
+        <v>-1600</v>
+      </c>
+      <c r="G37" s="3">
+        <f>E37-B37</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="2"/>
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D38" s="3">
+        <f>C38-B38</f>
+        <v>1500</v>
+      </c>
+      <c r="E38" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F38" s="3">
+        <f>C38-E38</f>
+        <v>1500</v>
+      </c>
+      <c r="G38" s="3">
+        <f>E38-B38</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2700</v>
+      </c>
+      <c r="C39" s="3">
+        <v>3200</v>
+      </c>
+      <c r="D39" s="3">
+        <f>C39-B39</f>
+        <v>500</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2700</v>
+      </c>
+      <c r="F39" s="3">
+        <f>C39-E39</f>
+        <v>500</v>
+      </c>
+      <c r="G39" s="3">
+        <f>E39-B39</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2800</v>
+      </c>
+      <c r="D40" s="3">
+        <f>C40-B40</f>
+        <v>800</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F40" s="3">
+        <f>C40-E40</f>
+        <v>800</v>
+      </c>
+      <c r="G40" s="3">
+        <f>E40-B40</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="3">
+        <v>36300</v>
+      </c>
+      <c r="C41" s="3">
+        <v>41100</v>
+      </c>
+      <c r="D41" s="3">
+        <f>C41-B41</f>
+        <v>4800</v>
+      </c>
+      <c r="E41" s="5">
+        <f>E33-SUM(E35:E40)</f>
+        <v>36300</v>
+      </c>
+      <c r="F41" s="3">
+        <f>C41-E41</f>
+        <v>4800</v>
+      </c>
+      <c r="G41" s="3">
+        <f>E41-B41</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <f>SUM(F41:G41)</f>
+        <v>4800</v>
       </c>
     </row>
   </sheetData>
